--- a/Documents/CombatSystem/ComboSheet.xlsx
+++ b/Documents/CombatSystem/ComboSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameEngineWork\UNREAL\PFEURA\Documents\CombatSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34AA934-6A5C-4C39-8229-69129FFCF172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F91C3C-3C68-4703-8D14-924B330E1E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="3390" windowWidth="19410" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combo Overview" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,6 @@
     <t xml:space="preserve"> 10 / 50</t>
   </si>
   <si>
-    <t>End lag can be cancelled by dodging</t>
-  </si>
-  <si>
     <t>Cancel Buffer Window 0,2s</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   <si>
     <t>Max hold time = 10s, Charge shot max at 5s
 No superarmor while charging</t>
+  </si>
+  <si>
+    <t>Anim can be cancelled by Dodging</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -505,20 +505,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -544,27 +550,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -606,6 +591,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -621,20 +634,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -690,139 +689,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -838,90 +704,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1209,7 +991,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,103 +1010,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -1350,7 +1132,7 @@
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1359,20 +1141,20 @@
       <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35" t="s">
-        <v>62</v>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="34" t="s">
+        <v>68</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="34"/>
       <c r="L7"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -1382,25 +1164,25 @@
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8"/>
+      <c r="B8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>64</v>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>65</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="34"/>
       <c r="L8"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -1798,7 +1580,7 @@
         <v>10 +  10 / 50</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -20590,39 +20372,39 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="J7:K7"/>
   </mergeCells>
+  <conditionalFormatting sqref="C11:G1000">
+    <cfRule type="containsBlanks" dxfId="26" priority="4">
+      <formula>LEN(TRIM(C11))=0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H11:M1000">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",H11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:G1000">
-    <cfRule type="containsBlanks" dxfId="55" priority="4">
-      <formula>LEN(TRIM(C11))=0</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="8" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M11:M1000">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="Very Low">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Very Low">
       <formula>NOT(ISERROR(SEARCH("Very Low",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20655,103 +20437,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>65</v>
+      <c r="A1" s="35" t="s">
+        <v>64</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -20786,16 +20568,16 @@
       <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -40056,180 +39838,65 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H11:M17 H19:M19 H31:M1000">
-    <cfRule type="containsText" dxfId="47" priority="61" operator="containsText" text="False">
+  <conditionalFormatting sqref="C11:G1000">
+    <cfRule type="containsBlanks" dxfId="16" priority="11">
+      <formula>LEN(TRIM(C11))=0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:M19">
+    <cfRule type="containsText" dxfId="13" priority="53" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",H11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="62" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="12" priority="54" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:G25 C27:G1000">
-    <cfRule type="containsBlanks" dxfId="45" priority="56">
-      <formula>LEN(TRIM(C11))=0</formula>
+  <conditionalFormatting sqref="H20:M1000">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",H20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="60" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",C11)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M17 M31:M1000 M19:M20">
-    <cfRule type="containsText" dxfId="42" priority="55" operator="containsText" text="None">
+  <conditionalFormatting sqref="M11:M20">
+    <cfRule type="containsText" dxfId="9" priority="48" operator="containsText" text="Very Low">
+      <formula>NOT(ISERROR(SEARCH("Very Low",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="49" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",M11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="50" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="57" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="58" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="5" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:M18">
-    <cfRule type="containsText" dxfId="39" priority="53" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="54" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",H18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="containsText" dxfId="37" priority="50" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",M18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="51" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",M18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="52" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",M18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:M1000 M11:M20">
-    <cfRule type="containsText" dxfId="34" priority="48" operator="containsText" text="Very Low">
-      <formula>NOT(ISERROR(SEARCH("Very Low",M11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",M11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:M30">
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",H27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:M30">
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Very Low">
-      <formula>NOT(ISERROR(SEARCH("Very Low",M27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",M27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",M27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",M27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",M27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:M20">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",H20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:M24">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",H21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M24">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Very Low">
-      <formula>NOT(ISERROR(SEARCH("Very Low",M21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="M21:M1000">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M21)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:M26">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:G26">
-    <cfRule type="containsBlanks" dxfId="14" priority="11">
-      <formula>LEN(TRIM(C26))=0</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",C26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Very Low">
-      <formula>NOT(ISERROR(SEARCH("Very Low",M26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",M26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",M26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",M26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",M26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:M25">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",H25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Very Low">
-      <formula>NOT(ISERROR(SEARCH("Very Low",M25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",M25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",M25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",M25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",M25)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Very Low">
+      <formula>NOT(ISERROR(SEARCH("Very Low",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/CombatSystem/ComboSheet.xlsx
+++ b/Documents/CombatSystem/ComboSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameEngineWork\UNREAL\PFEURA\Documents\CombatSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliott SPARWASSER\Desktop\PFA\PFEURA\Documents\CombatSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3959420-4B06-42B5-822F-B5D370131F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C72786B-E50E-4A20-A49E-FEE6DA481156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combo Overview" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Quantum Flurry</t>
-  </si>
-  <si>
-    <t>Spin-Shot-Bash</t>
   </si>
   <si>
     <t>Forward Kick</t>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Properties (Do not use Properties in Schemas)</t>
+  </si>
+  <si>
+    <t>Turbo Dropkick</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -641,21 +641,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,17 +660,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -691,39 +679,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -776,6 +745,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -811,6 +787,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -818,7 +801,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2205,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,103 +2208,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -2356,20 +2339,20 @@
       <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
-        <v>57</v>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41" t="s">
+        <v>67</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="41"/>
       <c r="L7"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -2381,23 +2364,23 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>63</v>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
+        <v>64</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="41"/>
       <c r="L8"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -2467,7 +2450,7 @@
         <v>25</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>22</v>
@@ -2481,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>14</v>
@@ -2710,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>14</v>
@@ -2750,7 +2733,7 @@
         <v>100</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -2761,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
@@ -2795,7 +2778,7 @@
         <v>10 +  10 / 50</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -2806,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>19</v>
@@ -2847,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>18</v>
@@ -2888,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>20</v>
@@ -2929,7 +2912,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>21</v>
@@ -21588,38 +21571,38 @@
     <mergeCell ref="J7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:G1000">
-    <cfRule type="containsBlanks" dxfId="47" priority="4">
+    <cfRule type="containsBlanks" dxfId="45" priority="4">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:M1000">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",H11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M1000">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="Very Low">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="Very Low">
       <formula>NOT(ISERROR(SEARCH("Very Low",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21632,8 +21615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919DD821-D5E9-41D8-AAC7-E0B903552F77}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21652,103 +21635,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>64</v>
+      <c r="A1" s="42" t="s">
+        <v>63</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -21783,16 +21766,16 @@
       <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -21848,7 +21831,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>1</v>
@@ -21884,7 +21867,7 @@
         <v>25</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>22</v>
@@ -21898,7 +21881,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>14</v>
@@ -21923,7 +21906,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11" s="25">
         <v>10</v>
@@ -21938,7 +21921,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
@@ -21963,7 +21946,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" s="25">
         <v>10</v>
@@ -21978,7 +21961,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -22003,7 +21986,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" s="25">
         <v>10</v>
@@ -22018,7 +22001,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -22043,7 +22026,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" s="25">
         <v>10</v>
@@ -22058,7 +22041,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -22083,7 +22066,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15" s="25">
         <v>10</v>
@@ -22123,13 +22106,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -22140,7 +22123,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>19</v>
@@ -22171,7 +22154,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -22182,7 +22165,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -22222,7 +22205,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -22262,7 +22245,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
@@ -22290,7 +22273,7 @@
         <v>27</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20"/>
@@ -22422,7 +22405,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -22462,7 +22445,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>18</v>
@@ -22502,7 +22485,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>21</v>
@@ -41054,63 +41037,63 @@
     <mergeCell ref="F7:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:G1000">
-    <cfRule type="containsBlanks" dxfId="37" priority="11">
+    <cfRule type="containsBlanks" dxfId="35" priority="11">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="14" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:M19">
-    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="32" priority="53" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",H11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="54" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="31" priority="54" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:M1000">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",H20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M20">
-    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="Very Low">
+    <cfRule type="containsText" dxfId="28" priority="48" operator="containsText" text="Very Low">
       <formula>NOT(ISERROR(SEARCH("Very Low",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="26" priority="50" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="52" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M1000">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Very Low">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Very Low">
       <formula>NOT(ISERROR(SEARCH("Very Low",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41123,8 +41106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E005FA2-9999-48D2-8415-3EC36386B2A4}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:L11"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41144,103 +41127,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>64</v>
+      <c r="A1" s="42" t="s">
+        <v>63</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -41275,16 +41258,16 @@
       <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -41340,7 +41323,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>1</v>
@@ -41354,18 +41337,18 @@
       <c r="F10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="47"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="22"/>
@@ -41378,7 +41361,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>14</v>
@@ -41388,14 +41371,14 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="46" t="s">
-        <v>69</v>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="50" t="s">
+        <v>68</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="8"/>
       <c r="P11"/>
       <c r="Q11"/>
@@ -41406,7 +41389,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
@@ -41416,14 +41399,14 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="45" t="s">
-        <v>69</v>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="44" t="s">
+        <v>68</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="8"/>
       <c r="P12"/>
       <c r="Q12"/>
@@ -41434,7 +41417,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -41444,14 +41427,14 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="45" t="s">
-        <v>70</v>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="44" t="s">
+        <v>69</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="8"/>
       <c r="P13"/>
       <c r="Q13"/>
@@ -41462,7 +41445,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -41472,14 +41455,14 @@
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="45" t="s">
-        <v>71</v>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="44" t="s">
+        <v>70</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="8"/>
       <c r="P14"/>
       <c r="Q14"/>
@@ -41490,7 +41473,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -41500,14 +41483,14 @@
         <v>14</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="45" t="s">
-        <v>73</v>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="44" t="s">
+        <v>72</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="8"/>
       <c r="P15"/>
       <c r="Q15"/>
@@ -41528,15 +41511,15 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="45" t="s">
-        <v>72</v>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="44" t="s">
+        <v>71</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
@@ -41546,7 +41529,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>19</v>
@@ -41555,16 +41538,16 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="47" t="s">
-        <v>75</v>
+      <c r="H17" s="48" t="s">
+        <v>74</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="42"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="38"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -41574,7 +41557,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -41584,14 +41567,14 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="45" t="s">
-        <v>74</v>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="44" t="s">
+        <v>73</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="8"/>
       <c r="P18"/>
       <c r="Q18"/>
@@ -41602,7 +41585,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -41612,14 +41595,14 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="45" t="s">
-        <v>76</v>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="44" t="s">
+        <v>75</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="8"/>
       <c r="P19"/>
       <c r="Q19"/>
@@ -41630,7 +41613,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
@@ -41640,14 +41623,14 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="45" t="s">
-        <v>77</v>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="44" t="s">
+        <v>76</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
       <c r="O20" s="8"/>
       <c r="P20"/>
       <c r="Q20"/>
@@ -41668,14 +41651,14 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="45" t="s">
-        <v>78</v>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="44" t="s">
+        <v>77</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="8"/>
       <c r="P21"/>
       <c r="Q21"/>
@@ -41696,14 +41679,14 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="45" t="s">
-        <v>79</v>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="44" t="s">
+        <v>78</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="8"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -41724,14 +41707,14 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="45" t="s">
-        <v>80</v>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="44" t="s">
+        <v>79</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="8"/>
       <c r="P23"/>
       <c r="Q23"/>
@@ -41742,7 +41725,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -41752,14 +41735,14 @@
         <v>13</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="45" t="s">
-        <v>81</v>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="44" t="s">
+        <v>80</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="8"/>
       <c r="P24"/>
       <c r="Q24"/>
@@ -41770,7 +41753,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>18</v>
@@ -41780,16 +41763,16 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="45" t="s">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="N25" s="45"/>
+      <c r="N25" s="44"/>
       <c r="O25" s="8"/>
       <c r="P25"/>
       <c r="Q25"/>
@@ -41800,7 +41783,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>21</v>
@@ -41810,14 +41793,14 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="45" t="s">
-        <v>84</v>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="44" t="s">
+        <v>83</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="8"/>
       <c r="P26"/>
       <c r="Q26"/>
@@ -41832,12 +41815,12 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="8"/>
       <c r="P27"/>
       <c r="Q27"/>
@@ -41852,12 +41835,12 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="8"/>
       <c r="P28"/>
       <c r="Q28"/>
@@ -41872,12 +41855,12 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
       <c r="O29" s="8"/>
       <c r="P29"/>
       <c r="Q29"/>
@@ -41896,9 +41879,9 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="44"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="40"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
@@ -60335,6 +60318,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:O5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="H10:J10"/>
@@ -60343,88 +60341,77 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A1:O5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:G1000">
-    <cfRule type="containsBlanks" dxfId="20" priority="10">
+    <cfRule type="containsBlanks" dxfId="18" priority="10">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:J19 H17 H11:K16 M11:M19 K17:K26">
-    <cfRule type="containsText" dxfId="5" priority="18" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H11)))</formula>
+  <conditionalFormatting sqref="H18:J26 M20:M24 M26 H27:M1000">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",H18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="True">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:K16 M11:M19 H17 K17:K26">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:M1000 M20:M24 H20:J26 M26">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="False">
-      <formula>NOT(ISERROR(SEARCH("False",H20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="True">
-      <formula>NOT(ISERROR(SEARCH("True",H20)))</formula>
+  <conditionalFormatting sqref="M11:M19 H11:K16 H17 K17:K26">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M20">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Very Low">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Very Low">
       <formula>NOT(ISERROR(SEARCH("Very Low",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M20:M24 M26 H27:M1000 H18:J26">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="False">
+      <formula>NOT(ISERROR(SEARCH("False",H18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M21:M24 M26:M1000">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Very Low">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Very Low">
       <formula>NOT(ISERROR(SEARCH("Very Low",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",M25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",M25)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/CombatSystem/ComboSheet.xlsx
+++ b/Documents/CombatSystem/ComboSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliott SPARWASSER\Desktop\PFA\PFEURA\Documents\CombatSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian MAGNO\Desktop\PFEURA\Documents\CombatSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C72786B-E50E-4A20-A49E-FEE6DA481156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C427D4E8-21C6-4CFC-9739-B3F781496DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combo Overview" sheetId="1" r:id="rId1"/>
@@ -670,6 +670,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -678,15 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2188,11 +2188,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
@@ -21619,7 +21619,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
@@ -41106,11 +41106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E005FA2-9999-48D2-8415-3EC36386B2A4}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
@@ -41340,15 +41340,15 @@
       <c r="G10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45" t="s">
+      <c r="I10" s="50"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="22"/>
@@ -41373,10 +41373,10 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="50"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="8"/>
@@ -41538,11 +41538,11 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
       <c r="M17" s="35"/>
@@ -60318,6 +60318,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="A1:O5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:I7"/>
@@ -60326,21 +60341,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:G1000">
     <cfRule type="containsBlanks" dxfId="18" priority="10">
